--- a/Planilhas/Jogos_da_semana.xlsx
+++ b/Planilhas/Jogos_da_semana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,17 +476,17 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Odd_H</t>
+          <t>H_odd</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Odd_D</t>
+          <t>D_odd</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Odd_A</t>
+          <t>A_odd</t>
         </is>
       </c>
     </row>
@@ -496,47 +496,47 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0Uw2IQhc</t>
+          <t>pzakEcuS</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>04/01/2024</t>
+          <t>10/02/2024</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>06:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>ALGERIA - U21 LEAGUE</t>
+          <t>SWITZERLAND - SUPER LEAGUE</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Saoura U21</t>
+          <t>Lausanne Ouchy</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Khenchela U21</t>
+          <t>Lausanne</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>ROUND 12</t>
+          <t>ROUND 23</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>1.25</v>
+        <v>3.4</v>
       </c>
       <c r="J2" t="n">
-        <v>5.1</v>
+        <v>3.5</v>
       </c>
       <c r="K2" t="n">
-        <v>8.75</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="3">
@@ -545,47 +545,47 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Egg7FOxG</t>
+          <t>xSjH9Hmq</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>04/01/2024</t>
+          <t>10/02/2024</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>ALGERIA - U21 LEAGUE</t>
+          <t>SWITZERLAND - SUPER LEAGUE</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>ASO Chlef U21</t>
+          <t>Zurich</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>USM Alger U21</t>
+          <t>Grasshoppers</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>ROUND 12</t>
+          <t>ROUND 23</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>2.52</v>
+        <v>1.8</v>
       </c>
       <c r="J3" t="n">
-        <v>2.87</v>
+        <v>3.6</v>
       </c>
       <c r="K3" t="n">
-        <v>2.75</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="4">
@@ -594,47 +594,47 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>6iYo8tVk</t>
+          <t>GIkL8y3k</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>04/01/2024</t>
+          <t>10/02/2024</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>ALGERIA - U21 LEAGUE</t>
+          <t>SWITZERLAND - SUPER LEAGUE</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Ben Aknoun U21</t>
+          <t>Lugano</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Oran U21</t>
+          <t>Young Boys</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>ROUND 12</t>
+          <t>ROUND 23</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>1.28</v>
+        <v>3</v>
       </c>
       <c r="J4" t="n">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="K4" t="n">
-        <v>8.75</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="5">
@@ -643,47 +643,47 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>OSrs9MFq</t>
+          <t>bsuQ7eIe</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>04/01/2024</t>
+          <t>11/02/2024</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>10:15</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>ALGERIA - U21 LEAGUE</t>
+          <t>SWITZERLAND - SUPER LEAGUE</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Constantine U21</t>
+          <t>Winterthur</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Biskra U21</t>
+          <t>Luzern</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>ROUND 12</t>
+          <t>ROUND 23</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>1.32</v>
+        <v>2.63</v>
       </c>
       <c r="J5" t="n">
-        <v>4.35</v>
+        <v>3.5</v>
       </c>
       <c r="K5" t="n">
-        <v>8</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="6">
@@ -692,47 +692,47 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>YsxAG4N9</t>
+          <t>CpqU6FX1</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>04/01/2024</t>
+          <t>11/02/2024</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>ALGERIA - U21 LEAGUE</t>
+          <t>SWITZERLAND - SUPER LEAGUE</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Magra U21</t>
+          <t>Basel</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>ES Setif U21</t>
+          <t>St. Gallen</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>ROUND 12</t>
+          <t>ROUND 23</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>3.45</v>
+        <v>2.8</v>
       </c>
       <c r="J6" t="n">
-        <v>2.95</v>
+        <v>3.6</v>
       </c>
       <c r="K6" t="n">
-        <v>2.07</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="7">
@@ -741,47 +741,47 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>hphBErhM</t>
+          <t>QmXBVbA2</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>04/01/2024</t>
+          <t>11/02/2024</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>ALGERIA - U21 LEAGUE</t>
+          <t>SWITZERLAND - SUPER LEAGUE</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>MC Alger U21</t>
+          <t>Yverdon</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Kabylie U21</t>
+          <t>Servette</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>ROUND 12</t>
+          <t>ROUND 23</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>1.57</v>
+        <v>5</v>
       </c>
       <c r="J7" t="n">
-        <v>3.85</v>
+        <v>4.2</v>
       </c>
       <c r="K7" t="n">
-        <v>4.75</v>
+        <v>1.65</v>
       </c>
     </row>
     <row r="8">
@@ -790,48 +790,42 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>fiw6Hp83</t>
+          <t>YyFMxQv1</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>04/01/2024</t>
+          <t>16/02/2024</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>ALGERIA - U21 LEAGUE</t>
+          <t>BOLIVIA - DIVISION PROFESIONAL</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>US Souf U21</t>
+          <t>Always Ready</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Paradou U21</t>
+          <t>Universitario de Vinto</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>ROUND 12</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="J8" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="K8" t="n">
-        <v>3.1</v>
-      </c>
+          <t xml:space="preserve">APERTURA </t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -839,48 +833,42 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>v98f1y16</t>
+          <t>6sXRvujr</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>04/01/2024</t>
+          <t>16/02/2024</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>GHANA - PREMIER LEAGUE</t>
+          <t>BOSNIA AND HERZEGOVINA - PREMIJER LIGA BIH</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Heart of Lions</t>
+          <t>Sloga Doboj</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Dreams</t>
+          <t>Velez Mostar</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>ROUND 13</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="J9" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="K9" t="n">
-        <v>3.9</v>
-      </c>
+          <t>ROUND 19</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -888,37 +876,37 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>n7iFD27S</t>
+          <t>4vWFUIP8</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>06/01/2024</t>
+          <t>17/02/2024</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>06:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>ALGERIA - U21 LEAGUE</t>
+          <t>SWITZERLAND - SUPER LEAGUE</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>El Bayadh U21</t>
+          <t>Lausanne</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>CR Belouizdad U21</t>
+          <t>Yverdon</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>ROUND 12</t>
+          <t>ROUND 24</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -931,12 +919,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>4jfClbH0</t>
+          <t>zatdp1SK</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>10/01/2024</t>
+          <t>17/02/2024</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -946,22 +934,22 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>GHANA - PREMIER LEAGUE</t>
+          <t>BOSNIA AND HERZEGOVINA - PREMIJER LIGA BIH</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Dreams</t>
+          <t>Zeljeznicar</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Bofoakwa Tano</t>
+          <t>Zrinjski</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>ROUND 12</t>
+          <t>ROUND 19</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -974,42 +962,300 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>hCz7AuvK</t>
+          <t>29QzwJKf</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>10/01/2024</t>
+          <t>17/02/2024</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>GHANA - PREMIER LEAGUE</t>
+          <t>BOSNIA AND HERZEGOVINA - PREMIJER LIGA BIH</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Medeama</t>
+          <t>Posusje</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Great Olympics</t>
+          <t>Zvijezda 09</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>ROUND 12</t>
+          <t>ROUND 19</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>nLCAuSfr</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>17/02/2024</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>BOLIVIA - DIVISION PROFESIONAL</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>SA Bulo Bulo</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>The Strongest</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">APERTURA </t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>tvzrp8nR</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>17/02/2024</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>BOLIVIA - DIVISION PROFESIONAL</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Santa Cruz</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Tomayapo</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">APERTURA </t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>r7dDamnE</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>17/02/2024</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>18:30</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>BOLIVIA - DIVISION PROFESIONAL</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Bolivar</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>GV San Jose</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">APERTURA </t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>pjmDTxuF</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>17/02/2024</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>SWITZERLAND - SUPER LEAGUE</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>St. Gallen</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Winterthur</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>ROUND 24</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>l2p0qLsR</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>17/02/2024</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>09:00</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>BOSNIA AND HERZEGOVINA - PREMIJER LIGA BIH</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Igman K.</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>GOSK Gabela</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>ROUND 19</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>OtnHSdfL</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>17/02/2024</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>SWITZERLAND - SUPER LEAGUE</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Grasshoppers</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Basel</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>ROUND 24</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Planilhas/Jogos_da_semana.xlsx
+++ b/Planilhas/Jogos_da_semana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,50 +441,35 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Id</t>
+          <t>Data</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Date</t>
+          <t>Liga</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Time</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>League</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>H_odd</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>D_odd</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Round</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>H_odd</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>D_odd</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>A_odd</t>
         </is>
@@ -496,47 +481,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pzakEcuS</t>
+          <t>15/02/2024</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>10/02/2024</t>
+          <t>Argelia u21</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>El Bayadh U21</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>SWITZERLAND - SUPER LEAGUE</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Lausanne Ouchy</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Lausanne</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>ROUND 23</t>
-        </is>
-      </c>
-      <c r="I2" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="J2" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="K2" t="n">
-        <v>2.1</v>
+          <t>ES Setif U21</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="G2" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="H2" t="n">
+        <v>2.72</v>
       </c>
     </row>
     <row r="3">
@@ -545,47 +515,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>xSjH9Hmq</t>
+          <t>15/02/2024</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>10/02/2024</t>
+          <t>Argelia u21</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>Saoura U21</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>SWITZERLAND - SUPER LEAGUE</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Zurich</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Grasshoppers</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>ROUND 23</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="J3" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="K3" t="n">
-        <v>4.5</v>
+          <t>Oran U21</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="G3" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -594,47 +549,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>GIkL8y3k</t>
+          <t>15/02/2024</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>10/02/2024</t>
+          <t>Argelia u21</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>ASO Chlef U21</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>SWITZERLAND - SUPER LEAGUE</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Lugano</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>Young Boys</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>ROUND 23</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
-        <v>3</v>
-      </c>
-      <c r="J4" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="K4" t="n">
-        <v>2.3</v>
+          <t>Ben Aknoun U21</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="G4" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2.42</v>
       </c>
     </row>
     <row r="5">
@@ -643,47 +583,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>bsuQ7eIe</t>
+          <t>15/02/2024</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>11/02/2024</t>
+          <t>Argelia u21</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>10:15</t>
+          <t>Khenchela U21</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>SWITZERLAND - SUPER LEAGUE</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Winterthur</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>Luzern</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>ROUND 23</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="J5" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="K5" t="n">
-        <v>2.6</v>
+          <t>USM Alger U21</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="G5" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2.52</v>
       </c>
     </row>
     <row r="6">
@@ -692,47 +617,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CpqU6FX1</t>
+          <t>15/02/2024</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>11/02/2024</t>
+          <t>Argelia u21</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>Magra U21</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>SWITZERLAND - SUPER LEAGUE</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Basel</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>St. Gallen</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>ROUND 23</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="J6" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="K6" t="n">
-        <v>2.4</v>
+          <t>CR Belouizdad U21</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="G6" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1.36</v>
       </c>
     </row>
     <row r="7">
@@ -741,47 +651,32 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>QmXBVbA2</t>
+          <t>15/02/2024</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>11/02/2024</t>
+          <t>Argelia u21</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>MC Alger U21</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>SWITZERLAND - SUPER LEAGUE</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Yverdon</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>Servette</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>ROUND 23</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
-        <v>5</v>
-      </c>
-      <c r="J7" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="K7" t="n">
-        <v>1.65</v>
+          <t>Constantine U21</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="G7" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="H7" t="n">
+        <v>5.3</v>
       </c>
     </row>
     <row r="8">
@@ -790,42 +685,33 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>YyFMxQv1</t>
+          <t>15/02/2024</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>16/02/2024</t>
+          <t>Argelia u21</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>Paradou U21</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>BOLIVIA - DIVISION PROFESIONAL</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Always Ready</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>Universitario de Vinto</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">APERTURA </t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+          <t>Kabylie U21</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="G8" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="H8" t="n">
+        <v>2.85</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -833,42 +719,27 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>6sXRvujr</t>
+          <t>15/02/2024</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>16/02/2024</t>
+          <t>Argelia u21</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>US Souf U21</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>BOSNIA AND HERZEGOVINA - PREMIJER LIGA BIH</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Sloga Doboj</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>Velez Mostar</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>ROUND 19</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+          <t>Biskra U21</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -876,42 +747,33 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>4vWFUIP8</t>
+          <t>15/02/2024</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>17/02/2024</t>
+          <t>Liga 1</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>Sporting Cristal</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>SWITZERLAND - SUPER LEAGUE</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Lausanne</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>Yverdon</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>ROUND 24</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+          <t>Los Chankas</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="G10" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -919,42 +781,27 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>zatdp1SK</t>
+          <t>16/02/2024</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>17/02/2024</t>
+          <t>Division Prof</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>Always Ready</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>BOSNIA AND HERZEGOVINA - PREMIJER LIGA BIH</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Zeljeznicar</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>Zrinjski</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>ROUND 19</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+          <t>Universitario de Vinto</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -962,42 +809,27 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>29QzwJKf</t>
+          <t>16/02/2024</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>17/02/2024</t>
+          <t>Premijer Liga Bih</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>Sloga Doboj</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>BOSNIA AND HERZEGOVINA - PREMIJER LIGA BIH</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Posusje</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>Zvijezda 09</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>ROUND 19</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+          <t>Velez Mostar</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1005,257 +837,33 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>nLCAuSfr</t>
+          <t>16/02/2024</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>17/02/2024</t>
+          <t>Liga 1</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>Alianza Atl.</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>BOLIVIA - DIVISION PROFESIONAL</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>SA Bulo Bulo</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>The Strongest</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">APERTURA </t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>tvzrp8nR</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>17/02/2024</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>21:00</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>BOLIVIA - DIVISION PROFESIONAL</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Santa Cruz</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>Tomayapo</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">APERTURA </t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>r7dDamnE</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>17/02/2024</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>18:30</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>BOLIVIA - DIVISION PROFESIONAL</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Bolivar</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>GV San Jose</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">APERTURA </t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>pjmDTxuF</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>17/02/2024</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>14:00</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>SWITZERLAND - SUPER LEAGUE</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>St. Gallen</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>Winterthur</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>ROUND 24</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>l2p0qLsR</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>17/02/2024</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>09:00</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>BOSNIA AND HERZEGOVINA - PREMIJER LIGA BIH</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Igman K.</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>GOSK Gabela</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>ROUND 19</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>OtnHSdfL</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>17/02/2024</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>16:30</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>SWITZERLAND - SUPER LEAGUE</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>Grasshoppers</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>Basel</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>ROUND 24</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+          <t>Cajamarca</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="G13" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
